--- a/results/sensitivity_be/break_even_data - copy.xlsx
+++ b/results/sensitivity_be/break_even_data - copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\results\sensitivity_be\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206D79DC-3F05-4B85-AC78-3F84DC2A0EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76965C3-A5FF-4151-94BB-B6BB6EC8D602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case1_apos" sheetId="1" state="hidden" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="case2_consq" sheetId="5" r:id="rId5"/>
     <sheet name="case2_cut_off" sheetId="6" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -204,6 +207,496 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="case1_apos"/>
+      <sheetName val="case1_consq"/>
+      <sheetName val="case1_cut_off"/>
+      <sheetName val="case2_apos"/>
+      <sheetName val="case2_consq"/>
+      <sheetName val="case2_cut_off"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2">
+            <v>0.21833255705413901</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>4.3970027216751598E-2</v>
+          </cell>
+          <cell r="E2">
+            <v>8.2337287872617654E-3</v>
+          </cell>
+          <cell r="F2">
+            <v>0.20446438346060691</v>
+          </cell>
+          <cell r="G2">
+            <v>-4.5092122658654178E-2</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.21833255705413901</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>4.3970027216751598E-2</v>
+          </cell>
+          <cell r="E3">
+            <v>5.2055901734352081E-2</v>
+          </cell>
+          <cell r="F3">
+            <v>6.0626947052385569E-2</v>
+          </cell>
+          <cell r="G3">
+            <v>-6.763818398798126E-3</v>
+          </cell>
+          <cell r="H3">
+            <v>-0.14253268830038651</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.1060037504023658</v>
+          </cell>
+          <cell r="C4">
+            <v>2.5475891986006961E-2</v>
+          </cell>
+          <cell r="D4">
+            <v>6.8397820114946925E-2</v>
+          </cell>
+          <cell r="E4">
+            <v>6.6483437884112071E-3</v>
+          </cell>
+          <cell r="F4">
+            <v>7.5797485274869069E-4</v>
+          </cell>
+          <cell r="G4">
+            <v>-5.6773814486840921E-5</v>
+          </cell>
+          <cell r="H4">
+            <v>-8.7429823270746873E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.1060037504023658</v>
+          </cell>
+          <cell r="C5">
+            <v>3.3922807408634528E-2</v>
+          </cell>
+          <cell r="D5">
+            <v>6.8397820114946925E-2</v>
+          </cell>
+          <cell r="E5">
+            <v>6.6483437884112071E-3</v>
+          </cell>
+          <cell r="F5">
+            <v>7.5797485274869069E-4</v>
+          </cell>
+          <cell r="G5">
+            <v>-5.6773814486840921E-5</v>
+          </cell>
+          <cell r="H5">
+            <v>-8.7429823270746873E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.62517529257135795</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>8.7940054433503154E-2</v>
+          </cell>
+          <cell r="E6">
+            <v>2.342443727768458E-2</v>
+          </cell>
+          <cell r="F6">
+            <v>0.58027739243509247</v>
+          </cell>
+          <cell r="G6">
+            <v>-0.1290060708015538</v>
+          </cell>
+          <cell r="H6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.62517529257135795</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>8.7940054433503154E-2</v>
+          </cell>
+          <cell r="E7">
+            <v>0.14710128999275349</v>
+          </cell>
+          <cell r="F7">
+            <v>8.7827338273480937E-2</v>
+          </cell>
+          <cell r="G7">
+            <v>-1.9350910620233069E-2</v>
+          </cell>
+          <cell r="H7">
+            <v>-0.40379594475009017</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.17883492362522971</v>
+          </cell>
+          <cell r="C8">
+            <v>5.0951783972013921E-2</v>
+          </cell>
+          <cell r="D8">
+            <v>0.1231160762069045</v>
+          </cell>
+          <cell r="E8">
+            <v>8.3818131432312447E-3</v>
+          </cell>
+          <cell r="F8">
+            <v>3.7898742637434529E-4</v>
+          </cell>
+          <cell r="G8">
+            <v>-1.135476289736819E-4</v>
+          </cell>
+          <cell r="H8">
+            <v>-0.14711536755133231</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0.17883492362522971</v>
+          </cell>
+          <cell r="C9">
+            <v>3.108635509087411E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>0.1231160762069045</v>
+          </cell>
+          <cell r="E9">
+            <v>8.3818131432312447E-3</v>
+          </cell>
+          <cell r="F9">
+            <v>3.7898742637434529E-4</v>
+          </cell>
+          <cell r="G9">
+            <v>-1.135476289736819E-4</v>
+          </cell>
+          <cell r="H9">
+            <v>-0.14711536755133231</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2">
+            <v>0.2476010124132689</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>0.18669863312578541</v>
+          </cell>
+          <cell r="E2">
+            <v>1.8790802209114961E-4</v>
+          </cell>
+          <cell r="F2">
+            <v>0.20306961677301921</v>
+          </cell>
+          <cell r="G2">
+            <v>-0.12231079955757181</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.2476010124132689</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>0.18669863312578541</v>
+          </cell>
+          <cell r="E3">
+            <v>7.3982352567315668E-2</v>
+          </cell>
+          <cell r="F3">
+            <v>6.0214955996307183E-2</v>
+          </cell>
+          <cell r="G3">
+            <v>-1.834661993363576E-2</v>
+          </cell>
+          <cell r="H3">
+            <v>-0.14814785044981879</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>7.6631345610207111E-2</v>
+          </cell>
+          <cell r="C4">
+            <v>0.1083401919500472</v>
+          </cell>
+          <cell r="D4">
+            <v>0.29042009597344393</v>
+          </cell>
+          <cell r="E4">
+            <v>3.6626370353864098E-3</v>
+          </cell>
+          <cell r="F4">
+            <v>7.4975798200743499E-4</v>
+          </cell>
+          <cell r="G4">
+            <v>-1.539969785052034E-4</v>
+          </cell>
+          <cell r="H4">
+            <v>-2.489772152830981E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>7.6631345610207111E-2</v>
+          </cell>
+          <cell r="C5">
+            <v>2.8357233617459031E-2</v>
+          </cell>
+          <cell r="D5">
+            <v>0.29042009597344393</v>
+          </cell>
+          <cell r="E5">
+            <v>3.6626370353864098E-3</v>
+          </cell>
+          <cell r="F5">
+            <v>7.4975798200743499E-4</v>
+          </cell>
+          <cell r="G5">
+            <v>-1.539969785052034E-4</v>
+          </cell>
+          <cell r="H5">
+            <v>-2.489772152830981E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.70857255815976716</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>0.3733972662515706</v>
+          </cell>
+          <cell r="E6">
+            <v>5.7693193191939184E-4</v>
+          </cell>
+          <cell r="F6">
+            <v>0.57631922254753576</v>
+          </cell>
+          <cell r="G6">
+            <v>-0.34992443773303827</v>
+          </cell>
+          <cell r="H6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.70857255815976716</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>0.3733972662515706</v>
+          </cell>
+          <cell r="E7">
+            <v>0.20931224436353399</v>
+          </cell>
+          <cell r="F7">
+            <v>8.7228248744409029E-2</v>
+          </cell>
+          <cell r="G7">
+            <v>-5.2488665659955733E-2</v>
+          </cell>
+          <cell r="H7">
+            <v>-0.41784489608345959</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.1294418801509061</v>
+          </cell>
+          <cell r="C8">
+            <v>0.21668038390009439</v>
+          </cell>
+          <cell r="D8">
+            <v>0.5227561727521991</v>
+          </cell>
+          <cell r="E8">
+            <v>6.0780442363683983E-3</v>
+          </cell>
+          <cell r="F8">
+            <v>3.7487899100371749E-4</v>
+          </cell>
+          <cell r="G8">
+            <v>-3.0799395701040701E-4</v>
+          </cell>
+          <cell r="H8">
+            <v>-4.1721130477044642E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0.1294418801509061</v>
+          </cell>
+          <cell r="C9">
+            <v>1.169512970317153E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>0.5227561727521991</v>
+          </cell>
+          <cell r="E9">
+            <v>6.0780442363683983E-3</v>
+          </cell>
+          <cell r="F9">
+            <v>3.7487899100371749E-4</v>
+          </cell>
+          <cell r="G9">
+            <v>-3.0799395701040701E-4</v>
+          </cell>
+          <cell r="H9">
+            <v>-4.1721130477044642E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="B2">
+            <v>1.085858421187641</v>
+          </cell>
+          <cell r="C2">
+            <v>3.33841692755643E-3</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>0.42287595245629073</v>
+          </cell>
+          <cell r="H2">
+            <v>-9.316538842970512E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>7.9914109500315911E-2</v>
+          </cell>
+          <cell r="C3">
+            <v>3.33841692755643E-3</v>
+          </cell>
+          <cell r="D3">
+            <v>2.547588801576612E-2</v>
+          </cell>
+          <cell r="E3">
+            <v>9.2367772806320872E-2</v>
+          </cell>
+          <cell r="F3">
+            <v>1.099250689704045E-2</v>
+          </cell>
+          <cell r="G3">
+            <v>1.454981971991862E-2</v>
+          </cell>
+          <cell r="H3">
+            <v>-1.385823931031156E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="B2">
+            <v>0.98946032018250707</v>
+          </cell>
+          <cell r="C2">
+            <v>1.5628959044474491E-2</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>0.42146179476212697</v>
+          </cell>
+          <cell r="H2">
+            <v>-0.32084276926322147</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.21576392950011719</v>
+          </cell>
+          <cell r="C3">
+            <v>1.5628959044474491E-2</v>
+          </cell>
+          <cell r="D3">
+            <v>0.108340194246262</v>
+          </cell>
+          <cell r="E3">
+            <v>8.2039262120084278E-2</v>
+          </cell>
+          <cell r="F3">
+            <v>4.6674658133311182E-2</v>
+          </cell>
+          <cell r="G3">
+            <v>1.4434060958976661E-2</v>
+          </cell>
+          <cell r="H3">
+            <v>1.229206472639288E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -785,24 +1278,31 @@
         <v>7</v>
       </c>
       <c r="B2">
+        <f>[1]case1_consq!B2</f>
         <v>0.21833255705413901</v>
       </c>
       <c r="C2">
+        <f>[1]case1_consq!C2</f>
         <v>0</v>
       </c>
       <c r="D2">
+        <f>[1]case1_consq!D2</f>
         <v>4.3970027216751598E-2</v>
       </c>
       <c r="E2">
+        <f>[1]case1_consq!E2</f>
         <v>8.2337287872617654E-3</v>
       </c>
       <c r="F2">
+        <f>[1]case1_consq!F2</f>
         <v>0.20446438346060691</v>
       </c>
       <c r="G2">
+        <f>[1]case1_consq!G2</f>
         <v>-4.5092122658654178E-2</v>
       </c>
       <c r="H2">
+        <f>[1]case1_consq!H2</f>
         <v>0</v>
       </c>
     </row>
@@ -811,24 +1311,31 @@
         <v>8</v>
       </c>
       <c r="B3">
+        <f>[1]case1_consq!B3</f>
         <v>0.21833255705413901</v>
       </c>
       <c r="C3">
+        <f>[1]case1_consq!C3</f>
         <v>0</v>
       </c>
       <c r="D3">
+        <f>[1]case1_consq!D3</f>
         <v>4.3970027216751598E-2</v>
       </c>
       <c r="E3">
+        <f>[1]case1_consq!E3</f>
         <v>5.2055901734352081E-2</v>
       </c>
       <c r="F3">
+        <f>[1]case1_consq!F3</f>
         <v>6.0626947052385569E-2</v>
       </c>
       <c r="G3">
+        <f>[1]case1_consq!G3</f>
         <v>-6.763818398798126E-3</v>
       </c>
       <c r="H3">
+        <f>[1]case1_consq!H3</f>
         <v>-0.14253268830038651</v>
       </c>
     </row>
@@ -837,25 +1344,32 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1068979015723818</v>
+        <f>[1]case1_consq!B4</f>
+        <v>0.1060037504023658</v>
       </c>
       <c r="C4">
+        <f>[1]case1_consq!C4</f>
         <v>2.5475891986006961E-2</v>
       </c>
       <c r="D4">
+        <f>[1]case1_consq!D4</f>
         <v>6.8397820114946925E-2</v>
       </c>
       <c r="E4">
-        <v>6.7250244850338512E-3</v>
+        <f>[1]case1_consq!E4</f>
+        <v>6.6483437884112071E-3</v>
       </c>
       <c r="F4">
+        <f>[1]case1_consq!F4</f>
         <v>7.5797485274869069E-4</v>
       </c>
       <c r="G4">
+        <f>[1]case1_consq!G4</f>
         <v>-5.6773814486840921E-5</v>
       </c>
       <c r="H4">
-        <v>-8.8627916429195167E-2</v>
+        <f>[1]case1_consq!H4</f>
+        <v>-8.7429823270746873E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -863,25 +1377,32 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1068979015723818</v>
+        <f>[1]case1_consq!B5</f>
+        <v>0.1060037504023658</v>
       </c>
       <c r="C5">
-        <v>4.5179992796925098E-2</v>
+        <f>[1]case1_consq!C5</f>
+        <v>3.3922807408634528E-2</v>
       </c>
       <c r="D5">
+        <f>[1]case1_consq!D5</f>
         <v>6.8397820114946925E-2</v>
       </c>
       <c r="E5">
-        <v>6.7250244850338512E-3</v>
+        <f>[1]case1_consq!E5</f>
+        <v>6.6483437884112071E-3</v>
       </c>
       <c r="F5">
+        <f>[1]case1_consq!F5</f>
         <v>7.5797485274869069E-4</v>
       </c>
       <c r="G5">
+        <f>[1]case1_consq!G5</f>
         <v>-5.6773814486840921E-5</v>
       </c>
       <c r="H5">
-        <v>-8.8627916429195167E-2</v>
+        <f>[1]case1_consq!H5</f>
+        <v>-8.7429823270746873E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -889,24 +1410,31 @@
         <v>11</v>
       </c>
       <c r="B6">
+        <f>[1]case1_consq!B6</f>
         <v>0.62517529257135795</v>
       </c>
       <c r="C6">
+        <f>[1]case1_consq!C6</f>
         <v>0</v>
       </c>
       <c r="D6">
+        <f>[1]case1_consq!D6</f>
         <v>8.7940054433503154E-2</v>
       </c>
       <c r="E6">
+        <f>[1]case1_consq!E6</f>
         <v>2.342443727768458E-2</v>
       </c>
       <c r="F6">
+        <f>[1]case1_consq!F6</f>
         <v>0.58027739243509247</v>
       </c>
       <c r="G6">
+        <f>[1]case1_consq!G6</f>
         <v>-0.1290060708015538</v>
       </c>
       <c r="H6">
+        <f>[1]case1_consq!H6</f>
         <v>0</v>
       </c>
     </row>
@@ -915,24 +1443,31 @@
         <v>12</v>
       </c>
       <c r="B7">
+        <f>[1]case1_consq!B7</f>
         <v>0.62517529257135795</v>
       </c>
       <c r="C7">
+        <f>[1]case1_consq!C7</f>
         <v>0</v>
       </c>
       <c r="D7">
+        <f>[1]case1_consq!D7</f>
         <v>8.7940054433503154E-2</v>
       </c>
       <c r="E7">
+        <f>[1]case1_consq!E7</f>
         <v>0.14710128999275349</v>
       </c>
       <c r="F7">
+        <f>[1]case1_consq!F7</f>
         <v>8.7827338273480937E-2</v>
       </c>
       <c r="G7">
+        <f>[1]case1_consq!G7</f>
         <v>-1.9350910620233069E-2</v>
       </c>
       <c r="H7">
+        <f>[1]case1_consq!H7</f>
         <v>-0.40379594475009017</v>
       </c>
     </row>
@@ -941,25 +1476,32 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1802049275751543</v>
+        <f>[1]case1_consq!B8</f>
+        <v>0.17883492362522971</v>
       </c>
       <c r="C8">
+        <f>[1]case1_consq!C8</f>
         <v>5.0951783972013921E-2</v>
       </c>
       <c r="D8">
+        <f>[1]case1_consq!D8</f>
         <v>0.1231160762069045</v>
       </c>
       <c r="E8">
-        <v>8.4614185543575252E-3</v>
+        <f>[1]case1_consq!E8</f>
+        <v>8.3818131432312447E-3</v>
       </c>
       <c r="F8">
+        <f>[1]case1_consq!F8</f>
         <v>3.7898742637434529E-4</v>
       </c>
       <c r="G8">
+        <f>[1]case1_consq!G8</f>
         <v>-1.135476289736819E-4</v>
       </c>
       <c r="H8">
-        <v>-0.14813865876667751</v>
+        <f>[1]case1_consq!H8</f>
+        <v>-0.14711536755133231</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -967,25 +1509,32 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1802049275751543</v>
+        <f>[1]case1_consq!B9</f>
+        <v>0.17883492362522971</v>
       </c>
       <c r="C9">
-        <v>4.2343540479164672E-2</v>
+        <f>[1]case1_consq!C9</f>
+        <v>3.108635509087411E-2</v>
       </c>
       <c r="D9">
+        <f>[1]case1_consq!D9</f>
         <v>0.1231160762069045</v>
       </c>
       <c r="E9">
-        <v>8.4614185543575252E-3</v>
+        <f>[1]case1_consq!E9</f>
+        <v>8.3818131432312447E-3</v>
       </c>
       <c r="F9">
+        <f>[1]case1_consq!F9</f>
         <v>3.7898742637434529E-4</v>
       </c>
       <c r="G9">
+        <f>[1]case1_consq!G9</f>
         <v>-1.135476289736819E-4</v>
       </c>
       <c r="H9">
-        <v>-0.14813865876667751</v>
+        <f>[1]case1_consq!H9</f>
+        <v>-0.14711536755133231</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1036,7 +1585,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B4,E4:H4)*513</f>
-        <v>13.182156071905439</v>
+        <v>13.298741114603791</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
@@ -1046,7 +1595,7 @@
         <v>40</v>
       </c>
       <c r="E14">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1055,17 +1604,17 @@
       </c>
       <c r="B15" s="2">
         <f>SUM(B5,E5:H5)*513</f>
-        <v>13.182156071905439</v>
+        <v>13.298741114603791</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
-        <v>0.11357781291187202</v>
+        <v>0.10232062752358145</v>
       </c>
       <c r="D15" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1102,7 +1651,7 @@
       </c>
       <c r="B18" s="2">
         <f>SUM(B8,E8:H8)*513</f>
-        <v>20.926874233200557</v>
+        <v>20.708173024453544</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
@@ -1112,7 +1661,7 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1121,17 +1670,17 @@
       </c>
       <c r="B19" s="2">
         <f>SUM(B9,E9:H9)*513</f>
-        <v>20.926874233200557</v>
+        <v>20.708173024453544</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>0.16545961668606918</v>
+        <v>0.15420243129777861</v>
       </c>
       <c r="D19" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1152,7 +1701,7 @@
       </c>
       <c r="C22">
         <f>IF(SUM($B$14:$C$14)+$C$14*E14&lt;SUM($B$13:$C$13)*E14,E14,)</f>
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1161,11 +1710,11 @@
       </c>
       <c r="B23">
         <f>IF(SUM($B$15:$C$15)+$C$15*D15&lt;SUM($B$12:$C$12)*D15,D15,)</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <f>IF(SUM($B$15:$C$15)+$C$15*E15&lt;SUM($B$13:$C$13)*E15,E15,)</f>
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1178,7 +1727,7 @@
       </c>
       <c r="C24">
         <f>IF(SUM($B$18:$C$18)+$C$18*$E$18&lt;SUM($B$17:$C$17)*E18,E18,)</f>
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1187,11 +1736,11 @@
       </c>
       <c r="B25">
         <f>IF(SUM($B$19:$C$19)+$C$19*D19&lt;SUM($B$16:$C$16)*D19,D19,)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <f>IF(SUM($B$19:$C$19)+$C$19*E19&lt;SUM($B$17:$C$17)*E19,E19,)</f>
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1245,24 +1794,31 @@
         <v>7</v>
       </c>
       <c r="B2">
+        <f>[1]case1_cut_off!B2</f>
         <v>0.2476010124132689</v>
       </c>
       <c r="C2">
+        <f>[1]case1_cut_off!C2</f>
         <v>0</v>
       </c>
       <c r="D2">
+        <f>[1]case1_cut_off!D2</f>
         <v>0.18669863312578541</v>
       </c>
       <c r="E2">
+        <f>[1]case1_cut_off!E2</f>
         <v>1.8790802209114961E-4</v>
       </c>
       <c r="F2">
+        <f>[1]case1_cut_off!F2</f>
         <v>0.20306961677301921</v>
       </c>
       <c r="G2">
+        <f>[1]case1_cut_off!G2</f>
         <v>-0.12231079955757181</v>
       </c>
       <c r="H2">
+        <f>[1]case1_cut_off!H2</f>
         <v>0</v>
       </c>
     </row>
@@ -1271,24 +1827,31 @@
         <v>8</v>
       </c>
       <c r="B3">
+        <f>[1]case1_cut_off!B3</f>
         <v>0.2476010124132689</v>
       </c>
       <c r="C3">
+        <f>[1]case1_cut_off!C3</f>
         <v>0</v>
       </c>
       <c r="D3">
+        <f>[1]case1_cut_off!D3</f>
         <v>0.18669863312578541</v>
       </c>
       <c r="E3">
+        <f>[1]case1_cut_off!E3</f>
         <v>7.3982352567315668E-2</v>
       </c>
       <c r="F3">
+        <f>[1]case1_cut_off!F3</f>
         <v>6.0214955996307183E-2</v>
       </c>
       <c r="G3">
+        <f>[1]case1_cut_off!G3</f>
         <v>-1.834661993363576E-2</v>
       </c>
       <c r="H3">
+        <f>[1]case1_cut_off!H3</f>
         <v>-0.14814785044981879</v>
       </c>
     </row>
@@ -1297,25 +1860,32 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>7.7536184746165332E-2</v>
+        <f>[1]case1_cut_off!B4</f>
+        <v>7.6631345610207111E-2</v>
       </c>
       <c r="C4">
+        <f>[1]case1_cut_off!C4</f>
         <v>0.1083401919500472</v>
       </c>
       <c r="D4">
+        <f>[1]case1_cut_off!D4</f>
         <v>0.29042009597344393</v>
       </c>
       <c r="E4">
-        <v>3.730196501009646E-3</v>
+        <f>[1]case1_cut_off!E4</f>
+        <v>3.6626370353864098E-3</v>
       </c>
       <c r="F4">
+        <f>[1]case1_cut_off!F4</f>
         <v>7.4975798200743499E-4</v>
       </c>
       <c r="G4">
+        <f>[1]case1_cut_off!G4</f>
         <v>-1.539969785052034E-4</v>
       </c>
       <c r="H4">
-        <v>-2.5020413874107549E-2</v>
+        <f>[1]case1_cut_off!H4</f>
+        <v>-2.489772152830981E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1323,25 +1893,32 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>7.7536184746165332E-2</v>
+        <f>[1]case1_cut_off!B5</f>
+        <v>7.6631345610207111E-2</v>
       </c>
       <c r="C5">
-        <v>8.5442612466029744E-2</v>
+        <f>[1]case1_cut_off!C5</f>
+        <v>2.8357233617459031E-2</v>
       </c>
       <c r="D5">
+        <f>[1]case1_cut_off!D5</f>
         <v>0.29042009597344393</v>
       </c>
       <c r="E5">
-        <v>3.730196501009646E-3</v>
+        <f>[1]case1_cut_off!E5</f>
+        <v>3.6626370353864098E-3</v>
       </c>
       <c r="F5">
+        <f>[1]case1_cut_off!F5</f>
         <v>7.4975798200743499E-4</v>
       </c>
       <c r="G5">
+        <f>[1]case1_cut_off!G5</f>
         <v>-1.539969785052034E-4</v>
       </c>
       <c r="H5">
-        <v>-2.5020413874107549E-2</v>
+        <f>[1]case1_cut_off!H5</f>
+        <v>-2.489772152830981E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1349,24 +1926,31 @@
         <v>11</v>
       </c>
       <c r="B6">
+        <f>[1]case1_cut_off!B6</f>
         <v>0.70857255815976716</v>
       </c>
       <c r="C6">
+        <f>[1]case1_cut_off!C6</f>
         <v>0</v>
       </c>
       <c r="D6">
+        <f>[1]case1_cut_off!D6</f>
         <v>0.3733972662515706</v>
       </c>
       <c r="E6">
+        <f>[1]case1_cut_off!E6</f>
         <v>5.7693193191939184E-4</v>
       </c>
       <c r="F6">
+        <f>[1]case1_cut_off!F6</f>
         <v>0.57631922254753576</v>
       </c>
       <c r="G6">
+        <f>[1]case1_cut_off!G6</f>
         <v>-0.34992443773303827</v>
       </c>
       <c r="H6">
+        <f>[1]case1_cut_off!H6</f>
         <v>0</v>
       </c>
     </row>
@@ -1375,24 +1959,31 @@
         <v>12</v>
       </c>
       <c r="B7">
+        <f>[1]case1_cut_off!B7</f>
         <v>0.70857255815976716</v>
       </c>
       <c r="C7">
+        <f>[1]case1_cut_off!C7</f>
         <v>0</v>
       </c>
       <c r="D7">
+        <f>[1]case1_cut_off!D7</f>
         <v>0.3733972662515706</v>
       </c>
       <c r="E7">
+        <f>[1]case1_cut_off!E7</f>
         <v>0.20931224436353399</v>
       </c>
       <c r="F7">
+        <f>[1]case1_cut_off!F7</f>
         <v>8.7228248744409029E-2</v>
       </c>
       <c r="G7">
+        <f>[1]case1_cut_off!G7</f>
         <v>-5.2488665659955733E-2</v>
       </c>
       <c r="H7">
+        <f>[1]case1_cut_off!H7</f>
         <v>-0.41784489608345959</v>
       </c>
     </row>
@@ -1401,25 +1992,32 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.13082826039811921</v>
+        <f>[1]case1_cut_off!B8</f>
+        <v>0.1294418801509061</v>
       </c>
       <c r="C8">
+        <f>[1]case1_cut_off!C8</f>
         <v>0.21668038390009439</v>
       </c>
       <c r="D8">
+        <f>[1]case1_cut_off!D8</f>
         <v>0.5227561727521991</v>
       </c>
       <c r="E8">
-        <v>6.1481805193350997E-3</v>
+        <f>[1]case1_cut_off!E8</f>
+        <v>6.0780442363683983E-3</v>
       </c>
       <c r="F8">
+        <f>[1]case1_cut_off!F8</f>
         <v>3.7487899100371749E-4</v>
       </c>
       <c r="G8">
+        <f>[1]case1_cut_off!G8</f>
         <v>-3.0799395701040701E-4</v>
       </c>
       <c r="H8">
-        <v>-4.1794551854313848E-2</v>
+        <f>[1]case1_cut_off!H8</f>
+        <v>-4.1721130477044642E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1427,25 +2025,32 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.13082826039811921</v>
+        <f>[1]case1_cut_off!B9</f>
+        <v>0.1294418801509061</v>
       </c>
       <c r="C9">
-        <v>6.8780508551742239E-2</v>
+        <f>[1]case1_cut_off!C9</f>
+        <v>1.169512970317153E-2</v>
       </c>
       <c r="D9">
+        <f>[1]case1_cut_off!D9</f>
         <v>0.5227561727521991</v>
       </c>
       <c r="E9">
-        <v>6.1481805193350997E-3</v>
+        <f>[1]case1_cut_off!E9</f>
+        <v>6.0780442363683983E-3</v>
       </c>
       <c r="F9">
+        <f>[1]case1_cut_off!F9</f>
         <v>3.7487899100371749E-4</v>
       </c>
       <c r="G9">
+        <f>[1]case1_cut_off!G9</f>
         <v>-3.0799395701040701E-4</v>
       </c>
       <c r="H9">
-        <v>-4.1794551854313848E-2</v>
+        <f>[1]case1_cut_off!H9</f>
+        <v>-4.1721130477044642E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1496,17 +2101,17 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B4,E4:H4)*513</f>
-        <v>29.159806657180237</v>
+        <v>28.723907347963195</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
         <v>0.39876028792349111</v>
       </c>
       <c r="D14" s="3">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E14">
-        <v>9117</v>
+        <v>8983</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1515,17 +2120,17 @@
       </c>
       <c r="B15" s="2">
         <f>SUM(B5,E5:H5)*513</f>
-        <v>29.159806657180237</v>
+        <v>28.723907347963195</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
-        <v>0.37586270843947367</v>
+        <v>0.31877732959090294</v>
       </c>
       <c r="D15" s="3">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="E15">
-        <v>1130</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1562,17 +2167,17 @@
       </c>
       <c r="B18" s="2">
         <f>SUM(B8,E8:H8)*513</f>
-        <v>48.862621111829633</v>
+        <v>48.153093298386494</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
         <v>0.73943655665229346</v>
       </c>
       <c r="D18" s="3">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E18">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1581,17 +2186,17 @@
       </c>
       <c r="B19" s="2">
         <f>SUM(B9,E9:H9)*513</f>
-        <v>48.862621111829633</v>
+        <v>48.153093298386494</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>0.59153668130394133</v>
+        <v>0.53445130245537065</v>
       </c>
       <c r="D19" s="3">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E19">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1608,11 +2213,11 @@
       </c>
       <c r="B22">
         <f>IF(SUM($B$14:$C$14)+$C$14*D14&lt;SUM($B$12:$C$12)*D14,D14,)</f>
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C22">
         <f>IF(SUM($B$14:$C$14)+$C$14*E14&lt;SUM($B$13:$C$13)*E14,E14,)</f>
-        <v>9117</v>
+        <v>8983</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1621,11 +2226,11 @@
       </c>
       <c r="B23">
         <f>IF(SUM($B$15:$C$15)+$C$15*D15&lt;SUM($B$12:$C$12)*D15,D15,)</f>
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="C23">
         <f>IF(SUM($B$15:$C$15)+$C$15*E15&lt;SUM($B$13:$C$13)*E15,E15,)</f>
-        <v>1130</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1634,11 +2239,11 @@
       </c>
       <c r="B24">
         <f>IF(SUM($B$18:$C$18)+$C$18*$D$18&lt;SUM($B$16:$C$16)*D18,D18,)</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24">
         <f>IF(SUM($B$18:$C$18)+$C$18*$E$18&lt;SUM($B$17:$C$17)*E18,E18,)</f>
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1647,11 +2252,11 @@
       </c>
       <c r="B25">
         <f>IF(SUM($B$19:$C$19)+$C$19*D19&lt;SUM($B$16:$C$16)*D19,D19,)</f>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C25">
         <f>IF(SUM($B$19:$C$19)+$C$19*E19&lt;SUM($B$17:$C$17)*E19,E19,)</f>
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1793,25 +2398,32 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>1.0858584179841979</v>
+        <f>[1]case2_consq!B2</f>
+        <v>1.085858421187641</v>
       </c>
       <c r="C2">
-        <v>3.3384168526695208E-3</v>
+        <f>[1]case2_consq!C2</f>
+        <v>3.33841692755643E-3</v>
       </c>
       <c r="D2">
+        <f>[1]case2_consq!D2</f>
         <v>0</v>
       </c>
       <c r="E2">
+        <f>[1]case2_consq!E2</f>
         <v>0</v>
       </c>
       <c r="F2">
+        <f>[1]case2_consq!F2</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.42287595257642929</v>
+        <f>[1]case2_consq!G2</f>
+        <v>0.42287595245629073</v>
       </c>
       <c r="H2">
-        <v>-9.3165374459833833E-2</v>
+        <f>[1]case2_consq!H2</f>
+        <v>-9.316538842970512E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1819,25 +2431,32 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>8.2683062919765404E-2</v>
+        <f>[1]case2_consq!B3</f>
+        <v>7.9914109500315911E-2</v>
       </c>
       <c r="C3">
-        <v>3.3384168526695208E-3</v>
+        <f>[1]case2_consq!C3</f>
+        <v>3.33841692755643E-3</v>
       </c>
       <c r="D3">
-        <v>2.5475885234447101E-2</v>
+        <f>[1]case2_consq!D3</f>
+        <v>2.547588801576612E-2</v>
       </c>
       <c r="E3">
-        <v>9.2367773103934306E-2</v>
+        <f>[1]case2_consq!E3</f>
+        <v>9.2367772806320872E-2</v>
       </c>
       <c r="F3">
-        <v>1.0992510564357681E-2</v>
+        <f>[1]case2_consq!F3</f>
+        <v>1.099250689704045E-2</v>
       </c>
       <c r="G3">
-        <v>1.4549819720870509E-2</v>
+        <f>[1]case2_consq!G3</f>
+        <v>1.454981971991862E-2</v>
       </c>
       <c r="H3">
-        <v>-1.3858233971140181E-3</v>
+        <f>[1]case2_consq!H3</f>
+        <v>-1.385823931031156E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1857,11 +2476,11 @@
       </c>
       <c r="B6" s="2">
         <f>SUM(B2,E2:H2)</f>
-        <v>1.4155689961007933</v>
+        <v>1.4155689852142266</v>
       </c>
       <c r="C6" s="2">
         <f>SUM(C2:D2)</f>
-        <v>3.3384168526695208E-3</v>
+        <v>3.33841692755643E-3</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -1871,11 +2490,11 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B3,E3:H3)*250</f>
-        <v>49.801835727953474</v>
+        <v>49.109596248141173</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C3:D3)</f>
-        <v>2.8814302087116623E-2</v>
+        <v>2.8814304943322551E-2</v>
       </c>
       <c r="D7" s="3">
         <v>36</v>
@@ -1942,7 +2561,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,25 +2594,32 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>0.98946031882397756</v>
+        <f>[1]case2_cut_off!B2</f>
+        <v>0.98946032018250707</v>
       </c>
       <c r="C2">
-        <v>1.5628958610710789E-2</v>
+        <f>[1]case2_cut_off!C2</f>
+        <v>1.5628959044474491E-2</v>
       </c>
       <c r="D2">
+        <f>[1]case2_cut_off!D2</f>
         <v>0</v>
       </c>
       <c r="E2">
+        <f>[1]case2_cut_off!E2</f>
         <v>0</v>
       </c>
       <c r="F2">
+        <f>[1]case2_cut_off!F2</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.42146179484729851</v>
+        <f>[1]case2_cut_off!G2</f>
+        <v>0.42146179476212697</v>
       </c>
       <c r="H2">
-        <v>-0.32084277425926622</v>
+        <f>[1]case2_cut_off!H2</f>
+        <v>-0.32084276926322147</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2001,25 +2627,32 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.22032097638885539</v>
+        <f>[1]case2_cut_off!B3</f>
+        <v>0.21576392950011719</v>
       </c>
       <c r="C3">
-        <v>1.5628958610710789E-2</v>
+        <f>[1]case2_cut_off!C3</f>
+        <v>1.5628959044474491E-2</v>
       </c>
       <c r="D3">
-        <v>0.1083401927760444</v>
+        <f>[1]case2_cut_off!D3</f>
+        <v>0.108340194246262</v>
       </c>
       <c r="E3">
-        <v>8.2039261673293576E-2</v>
+        <f>[1]case2_cut_off!E3</f>
+        <v>8.2039262120084278E-2</v>
       </c>
       <c r="F3">
-        <v>4.6674658906411447E-2</v>
+        <f>[1]case2_cut_off!F3</f>
+        <v>4.6674658133311182E-2</v>
       </c>
       <c r="G3">
-        <v>1.443406096017481E-2</v>
+        <f>[1]case2_cut_off!G3</f>
+        <v>1.4434060958976661E-2</v>
       </c>
       <c r="H3">
-        <v>1.2292062699925249E-3</v>
+        <f>[1]case2_cut_off!H3</f>
+        <v>1.229206472639288E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2039,11 +2672,11 @@
       </c>
       <c r="B6" s="2">
         <f>SUM(B2,E2:H2)</f>
-        <v>1.0900793394120099</v>
+        <v>1.0900793456814126</v>
       </c>
       <c r="C6" s="2">
         <f>SUM(C2:D2)</f>
-        <v>1.5628958610710789E-2</v>
+        <v>1.5628959044474491E-2</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -2053,14 +2686,14 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B3,E3:H3)*250</f>
-        <v>91.17454104968192</v>
+        <v>90.035279296282141</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C3:D3)</f>
-        <v>0.12396915138675518</v>
+        <v>0.12396915329073649</v>
       </c>
       <c r="D7" s="3">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2082,7 +2715,7 @@
       </c>
       <c r="B10">
         <f>IF(SUM($B$7:$C$7)+$C$7*D7&lt;SUM($B$6:$C$6)*D7,D7,)</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
